--- a/쿠팡_노트북.xlsx
+++ b/쿠팡_노트북.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -541,22 +541,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -646,22 +646,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -856,22 +856,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1101,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1206,22 +1206,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -1276,22 +1276,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1451,32 +1451,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1556,22 +1556,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -1626,22 +1626,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -1696,22 +1696,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1801,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1906,22 +1906,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2046,22 +2046,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2081,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2116,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2151,32 +2151,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2256,22 +2256,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -2291,22 +2291,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -2326,22 +2326,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2431,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -2466,32 +2466,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2501,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2606,22 +2606,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -2641,22 +2641,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -2676,22 +2676,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2746,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -2816,32 +2816,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2851,32 +2851,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2956,22 +2956,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3096,22 +3096,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -3131,32 +3131,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3166,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3306,22 +3306,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -3341,22 +3341,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -3376,22 +3376,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -3481,32 +3481,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3656,22 +3656,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>398,000원</t>
+          <t>629,000원</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>398,000</t>
+          <t>629,000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1127)</t>
+          <t>(351)</t>
         </is>
       </c>
     </row>
@@ -3691,22 +3691,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+          <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>398,000원</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>398,000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(351)</t>
+          <t>(1127)</t>
         </is>
       </c>
     </row>
@@ -3726,22 +3726,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 756GB, 코어i5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>25%  1,800,000     1,345,500원</t>
+          <t>310,000원</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1,345,500</t>
+          <t>310,000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+          <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>459,000원</t>
+          <t>239,000원</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>239,000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(17)</t>
         </is>
       </c>
     </row>
@@ -3796,22 +3796,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+          <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>629,000원</t>
+          <t>9%  439,000     399,000원</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>399,000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(110)</t>
         </is>
       </c>
     </row>
@@ -3831,32 +3831,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+          <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>21%  1,259,000     990,000원</t>
+          <t>549,000원</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>990,000</t>
+          <t>549,000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(60)</t>
+          <t>(14)</t>
         </is>
       </c>
     </row>
@@ -3866,32 +3866,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+          <t>HP EliteBook 850 G5 인텔 8세대 Core-i5/i7 RAM 16GB M.2 SSD 윈도우 11설치 사무용 중고노트북, WIN11 Pro, 1TB, 코어i5</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19%  569,000     459,000원</t>
+          <t>599,000원</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>459,000</t>
+          <t>599,000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3561)</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2 NT550XED-K78AR/S NVMe 512GB 윈도우11 한컴오피스, 그라파이트, 코어i7, 16GB, WIN11 Home, NT550XED-K78AR</t>
+          <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>18%  1,549,000     1,269,000원</t>
+          <t>25%  1,800,000     1,345,500원</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1,269,000</t>
+          <t>1,345,500</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(2747)</t>
+          <t>(60)</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+          <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>29%  1,329,000     939,000원</t>
+          <t>459,000원</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>939,000</t>
+          <t>459,000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(1037)</t>
+          <t>(4)</t>
         </is>
       </c>
     </row>
